--- a/Documents/Local Employee.xlsx
+++ b/Documents/Local Employee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIET\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovation\Code2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
-  <si>
-    <t>C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>IsActive</t>
   </si>
@@ -74,12 +71,6 @@
     <t>Van</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>test-a.nguyen@vn.bosch.com</t>
-  </si>
-  <si>
     <t>ATS1HC</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>56798</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -164,12 +152,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>test-b.nguyen@vn.bosch.com</t>
-  </si>
-  <si>
-    <t>test-c.nguyen@vn.bosch.com</t>
-  </si>
-  <si>
     <t>test-D.nguyen@vn.bosch.com</t>
   </si>
   <si>
@@ -234,6 +216,33 @@
   </si>
   <si>
     <t>RBVH/ETI5.1</t>
+  </si>
+  <si>
+    <t>SANDRA.MUIR2@AU.BOSCH.COM</t>
+  </si>
+  <si>
+    <t>UWE.HAUSER@CN.BOSCH.COM</t>
+  </si>
+  <si>
+    <t>Muir</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Hauser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwe </t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>LEWIS.HENRY@VN.BOSCH.COM</t>
   </si>
 </sst>
 </file>
@@ -255,12 +264,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,10 +291,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,374 +580,374 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" display="test-a.nguyen@vn.bosch.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="test-b.nguyen@vn.bosch.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="test-c.nguyen@vn.bosch.com"/>
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
